--- a/biology/Botanique/Bilinguaceae/Bilinguaceae.xlsx
+++ b/biology/Botanique/Bilinguaceae/Bilinguaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bilinguaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Bilinguales .
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Bilingua, composé du préfixe bi-, deux, et du suffixe -lingua, langue, en référence aux « valves bipolaires » de ce genre ; en effet Gersonde et Harwood décrivent ainsi deux espèces de diatomées fossiles : « La plupart des taxons ont un plan de valve circulaire. Seules deux espèces, Bilingua rossii et Kerkis bispinosa, sont caractérisées par des valves bipolaires »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Bilingua, composé du préfixe bi-, deux, et du suffixe -lingua, langue, en référence aux « valves bipolaires » de ce genre ; en effet Gersonde et Harwood décrivent ainsi deux espèces de diatomées fossiles : « La plupart des taxons ont un plan de valve circulaire. Seules deux espèces, Bilingua rossii et Kerkis bispinosa, sont caractérisées par des valves bipolaires ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Bilingua a des valves à symétrie bipolaire. Face valvaire et manteau ont une couche siliceuse de stries ponctuées. Les pôles et le centre sont centre marqués par des élévations ; l'élévation centrale est ornée de costa et l'anneau central de structures en forme de fente à orientation radiale (processus dit « haplo-scissuré »). Face valvulaire et manteau valvulaire sont séparés par une crête marginale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Bilingua a des valves à symétrie bipolaire. Face valvaire et manteau ont une couche siliceuse de stries ponctuées. Les pôles et le centre sont centre marqués par des élévations ; l'élévation centrale est ornée de costa et l'anneau central de structures en forme de fente à orientation radiale (processus dit « haplo-scissuré »). Face valvulaire et manteau valvulaire sont séparés par une crête marginale.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bilingua est un genre fossile découvert dans des sondages effectués au fond de la mer de Weddell (océan Antarctique), dans des dépôts de l'étage Crétacé inférieur[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bilingua est un genre fossile découvert dans des sondages effectués au fond de la mer de Weddell (océan Antarctique), dans des dépôts de l'étage Crétacé inférieur.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 août 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 août 2022) :
 Bilingua R.Gersonde &amp; D.M.Harwood, 1990 †</t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bilinguaceae Nikolaev &amp; Harwood[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bilinguaceae Nikolaev &amp; Harwood.
 </t>
         </is>
       </c>
